--- a/src/excel_files/png/jp/import/PNGLO001R_IMPORT_SO_TESTING_png_i_nb_nd_pn_fcl.xlsx
+++ b/src/excel_files/png/jp/import/PNGLO001R_IMPORT_SO_TESTING_png_i_nb_nd_pn_fcl.xlsx
@@ -815,17 +815,17 @@
     <row customFormat="1" customHeight="1" ht="18" r="3" s="18">
       <c r="A3" s="15" t="inlineStr">
         <is>
-          <t>JSSO1000227</t>
+          <t>JSSO1000251</t>
         </is>
       </c>
       <c r="B3" s="15" t="inlineStr">
         <is>
-          <t>JSSO1000227</t>
+          <t>JSSO1000251</t>
         </is>
       </c>
       <c r="C3" s="15" t="inlineStr">
         <is>
-          <t>JSSO1000227</t>
+          <t>JSSO1000251</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
@@ -946,7 +946,7 @@
       <c r="AI3" s="17" t="n"/>
       <c r="AJ3" s="17" t="inlineStr">
         <is>
-          <t>JSCN1000227</t>
+          <t>JSCN1000251</t>
         </is>
       </c>
       <c r="AK3" s="17" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="AL3" s="18" t="inlineStr">
         <is>
-          <t>SLJSSO1000227</t>
+          <t>SLJSSO1000251</t>
         </is>
       </c>
       <c r="AM3" s="17" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="AN3" s="15" t="inlineStr">
         <is>
-          <t>MBLJSSO1000227</t>
+          <t>MBLJSSO1000251</t>
         </is>
       </c>
       <c r="AO3" s="15" t="inlineStr">
         <is>
-          <t>HBLJSSO1000227</t>
+          <t>HBLJSSO1000251</t>
         </is>
       </c>
       <c r="AP3" s="17" t="inlineStr">

--- a/src/excel_files/png/jp/import/PNGLO001R_IMPORT_SO_TESTING_png_i_nb_nd_pn_fcl.xlsx
+++ b/src/excel_files/png/jp/import/PNGLO001R_IMPORT_SO_TESTING_png_i_nb_nd_pn_fcl.xlsx
@@ -815,17 +815,17 @@
     <row customFormat="1" customHeight="1" ht="18" r="3" s="18">
       <c r="A3" s="15" t="inlineStr">
         <is>
-          <t>JSSO1000251</t>
+          <t>JSSO1000277</t>
         </is>
       </c>
       <c r="B3" s="15" t="inlineStr">
         <is>
-          <t>JSSO1000251</t>
+          <t>JSSO1000277</t>
         </is>
       </c>
       <c r="C3" s="15" t="inlineStr">
         <is>
-          <t>JSSO1000251</t>
+          <t>JSSO1000277</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
@@ -946,7 +946,7 @@
       <c r="AI3" s="17" t="n"/>
       <c r="AJ3" s="17" t="inlineStr">
         <is>
-          <t>JSCN1000251</t>
+          <t>JSCN1000277</t>
         </is>
       </c>
       <c r="AK3" s="17" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="AL3" s="18" t="inlineStr">
         <is>
-          <t>SLJSSO1000251</t>
+          <t>SLJSSO1000277</t>
         </is>
       </c>
       <c r="AM3" s="17" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="AN3" s="15" t="inlineStr">
         <is>
-          <t>MBLJSSO1000251</t>
+          <t>MBLJSSO1000277</t>
         </is>
       </c>
       <c r="AO3" s="15" t="inlineStr">
         <is>
-          <t>HBLJSSO1000251</t>
+          <t>HBLJSSO1000277</t>
         </is>
       </c>
       <c r="AP3" s="17" t="inlineStr">
